--- a/data/georgia_census/samegrelo/xobi/average_wages.xlsx
+++ b/data/georgia_census/samegrelo/xobi/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60EF315B-E780-412A-822D-1A4468B95F9D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3D99EE5-2706-4D33-9493-AFF83527CF22}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0947FEA7-B33B-4F12-B313-5D8472DEC9EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8857F77-BB16-4BA7-A71C-51C7A3ADFD00}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18B81F64-D242-4964-BDE3-FBC5B32A8B03}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58EE6D75-A900-49D5-AE78-472249F33E4E}"/>
 </file>